--- a/数据整理/stocks/A股/上证主板/603505-金石资源.xlsx
+++ b/数据整理/stocks/A股/上证主板/603505-金石资源.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519993</t>
+          <t>160105</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长信增利动态策略混合</t>
+          <t>南方积极配置混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>75.78</t>
+          <t>7.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2959</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000554</t>
+          <t>519993</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方中国梦灵活配置混合</t>
+          <t>长信增利动态策略混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.78</t>
+          <t>6.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>75.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2653</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160105</t>
+          <t>005589</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方积极配置混合(LOF)</t>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.95</t>
+          <t>7.19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>58.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2653</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007903</t>
+          <t>005270</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长城量化小盘股票</t>
+          <t>太平改革红利精选灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>84.74</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005270</t>
+          <t>007903</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>太平改革红利精选灵活配置混合</t>
+          <t>长城量化小盘股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>84.49</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.56</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005589</t>
+          <t>000554</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长信企业精选两年定期开放灵活配置混合</t>
+          <t>南方中国梦灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>58.61</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -716,15 +796,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>86.68</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>6.64</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1514</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -744,15 +834,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>78.93</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.10</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603505-金石资源.xlsx
+++ b/数据整理/stocks/A股/上证主板/603505-金石资源.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1659</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603505-金石资源.xlsx
+++ b/数据整理/stocks/A股/上证主板/603505-金石资源.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1030,4 +1031,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>270006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发策略优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9907</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>233009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大摩多因子精选策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1338</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009246</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫ESG量化先行混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603505-金石资源.xlsx
+++ b/数据整理/stocks/A股/上证主板/603505-金石资源.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603505-金石资源.xlsx
+++ b/数据整理/stocks/A股/上证主板/603505-金石资源.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1210,7 +1211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,17 +1222,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1241,14 +1262,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.19</v>
+          <t>270006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发策略优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8788</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1257,14 +1300,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>000986</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>太平灵活配置混合型发起式</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6382</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="4">
@@ -1273,14 +1406,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5">
@@ -1289,13 +1422,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603505-金石资源.xlsx
+++ b/数据整理/stocks/A股/上证主板/603505-金石资源.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1343,7 +1344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1354,17 +1355,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1374,14 +1395,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>270006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发策略优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5814</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>2.52</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="3">
@@ -1390,14 +1485,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>2.19</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="4">
@@ -1406,14 +1501,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="5">
@@ -1422,14 +1517,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6">
@@ -1438,13 +1533,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603505-金石资源.xlsx
+++ b/数据整理/stocks/A股/上证主板/603505-金石资源.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,285 +456,227 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160105</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方积极配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.95</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2959</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519993</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>长信增利动态策略混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.91</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>75.78</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2653</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.52</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005589</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长信企业精选两年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.19</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>58.61</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2653</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005270</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>太平改革红利精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>84.49</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.56</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1769</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007903</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>长城量化小盘股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>84.74</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0763</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
+      <c r="D6" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000554</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>南方中国梦灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.78</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0692</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>270006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发策略优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5814</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -761,7 +703,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -791,36 +733,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005270</t>
+          <t>270006</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>太平改革红利精选灵活配置混合</t>
+          <t>广发策略优选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>42.41</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.68</t>
+          <t>92.08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.64</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1514</t>
+          <t>1.8788</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -829,206 +771,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000433</t>
+          <t>000986</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安信鑫发优选混合</t>
+          <t>太平灵活配置混合型发起式</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>18.13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>78.93</t>
+          <t>83.79</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0857</t>
+          <t>0.6382</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005270</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>太平改革红利精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>82.19</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.06</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1659</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010896</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>太平价值增长股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>73.60</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0744</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010897</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>太平价值增长股票C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>73.60</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0632</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1212,7 +984,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1233,7 +1005,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1263,36 +1035,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>270006</t>
+          <t>005270</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发策略优选混合</t>
+          <t>太平改革红利精选灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>42.41</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.08</t>
+          <t>82.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>7.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.8788</t>
+          <t>0.1659</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1301,36 +1073,74 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000986</t>
+          <t>010896</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>太平灵活配置混合型发起式</t>
+          <t>太平价值增长股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18.13</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.79</t>
+          <t>73.60</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6382</t>
+          <t>0.0744</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1344,7 +1154,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1365,7 +1175,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1395,36 +1205,74 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>270006</t>
+          <t>005270</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发策略优选混合</t>
+          <t>太平改革红利精选灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>43.09</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.73</t>
+          <t>86.68</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>6.64</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5814</t>
+          <t>0.1514</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1438,128 +1286,280 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>160105</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方积极配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2959</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2653</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
-        <v>2.52</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>58.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2653</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.19</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.3</v>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.24</v>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.15</v>
+          <t>000554</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方中国梦灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603505-金石资源.xlsx
+++ b/数据整理/stocks/A股/上证主板/603505-金石资源.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.58</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>2.52</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>2.19</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -649,26 +666,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>43.09</t>
+          <t>46.95</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.73</t>
+          <t>92.53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5814</t>
+          <t>1.8076</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -677,6 +694,100 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>270006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发策略优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5814</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -801,176 +912,6 @@
       </c>
       <c r="H3" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>270006</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发策略优选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>40.96</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.85</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.9907</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>233009</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大摩多因子精选策略混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.80</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.97</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1338</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009246</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫ESG量化先行混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0692</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1035,36 +976,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005270</t>
+          <t>270006</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>太平改革红利精选灵活配置混合</t>
+          <t>广发策略优选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>40.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.19</t>
+          <t>91.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.06</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1659</t>
+          <t>1.9907</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1073,32 +1014,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010896</t>
+          <t>233009</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>太平价值增长股票A</t>
+          <t>大摩多因子精选策略混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>8.80</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>73.60</t>
+          <t>92.97</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0744</t>
+          <t>0.1338</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1111,36 +1052,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010897</t>
+          <t>009246</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>太平价值增长股票C</t>
+          <t>摩根士丹利华鑫ESG量化先行混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>73.60</t>
+          <t>93.84</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0632</t>
+          <t>0.0692</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1149,6 +1090,176 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1659</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1280,7 +1391,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603505-金石资源.xlsx
+++ b/数据整理/stocks/A股/上证主板/603505-金石资源.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1.58</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>2.52</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>2.19</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>46.95</t>
+          <t>48.36</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.53</t>
+          <t>93.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.8076</t>
+          <t>1.8812</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -760,26 +777,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>43.09</t>
+          <t>46.95</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.73</t>
+          <t>92.53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5814</t>
+          <t>1.8076</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -788,6 +805,100 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>270006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发策略优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5814</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -912,176 +1023,6 @@
       </c>
       <c r="H3" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>270006</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发策略优选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>40.96</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.85</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.9907</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>233009</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大摩多因子精选策略混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.80</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.97</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1338</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009246</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫ESG量化先行混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0692</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1146,36 +1087,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005270</t>
+          <t>270006</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>太平改革红利精选灵活配置混合</t>
+          <t>广发策略优选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>40.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.19</t>
+          <t>91.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.06</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1659</t>
+          <t>1.9907</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1184,32 +1125,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010896</t>
+          <t>233009</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>太平价值增长股票A</t>
+          <t>大摩多因子精选策略混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>8.80</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>73.60</t>
+          <t>92.97</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0744</t>
+          <t>0.1338</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1222,36 +1163,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010897</t>
+          <t>009246</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>太平价值增长股票C</t>
+          <t>摩根士丹利华鑫ESG量化先行混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>73.60</t>
+          <t>93.84</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0632</t>
+          <t>0.0692</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1260,6 +1201,176 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1659</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1391,7 +1502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
